--- a/data/photodetector_data.xlsx
+++ b/data/photodetector_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yx200\Desktop\imperial\yr3\A2-Radiation_Laws\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973AB22B-9C25-41EA-9788-B6942113A9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E4C258-8299-44AA-BE57-76CE928C3AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>lamp current (A)</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t xml:space="preserve">detector current - filter 1 (orange) (mA) </t>
+  </si>
+  <si>
+    <t>detector current(green) - filter 2 (mA)</t>
   </si>
 </sst>
 </file>
@@ -2395,10 +2398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2407,9 +2410,10 @@
     <col min="2" max="2" width="8.1328125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="5" max="5" width="31.796875" customWidth="1"/>
+    <col min="7" max="7" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2428,8 +2432,11 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.3</v>
       </c>
@@ -2448,8 +2455,11 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.35</v>
       </c>
@@ -2468,8 +2478,11 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -2488,8 +2501,11 @@
       <c r="F4" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
+      <c r="G4" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.45</v>
       </c>
@@ -2508,8 +2524,11 @@
       <c r="F5" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
+      <c r="G5" s="1">
+        <v>8.2000000000000001E-5</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -2528,8 +2547,11 @@
       <c r="F6" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
+      <c r="G6" s="1">
+        <v>2.3599999999999999E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.55000000000000004</v>
       </c>
@@ -2548,8 +2570,11 @@
       <c r="F7" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
+      <c r="G7" s="1">
+        <v>5.7300000000000005E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -2568,8 +2593,11 @@
       <c r="F8" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
+      <c r="G8" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.65</v>
       </c>
@@ -2588,8 +2616,11 @@
       <c r="F9" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
+      <c r="G9" s="1">
+        <v>2.3E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.7</v>
       </c>
@@ -2608,8 +2639,11 @@
       <c r="F10" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
+      <c r="G10" s="1">
+        <v>3.98E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.75</v>
       </c>
@@ -2628,8 +2662,11 @@
       <c r="F11" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
+      <c r="G11" s="1">
+        <v>6.5500000000000003E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.8</v>
       </c>
@@ -2647,6 +2684,9 @@
       </c>
       <c r="F12" s="1">
         <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.01E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/photodetector_data.xlsx
+++ b/data/photodetector_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yx200\Desktop\imperial\yr3\A2-Radiation_Laws\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E4C258-8299-44AA-BE57-76CE928C3AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7797A6DC-DA8E-4B58-8DE6-AD9293557E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>lamp current (A)</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>detector current(green) - filter 2 (mA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detector current filter 3(cyan)(mA) </t>
+  </si>
+  <si>
+    <t>Detector current filter 4(purple)</t>
+  </si>
+  <si>
+    <t>Filter_4 unc</t>
   </si>
 </sst>
 </file>
@@ -2398,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2411,9 +2420,11 @@
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="5" max="5" width="31.796875" customWidth="1"/>
     <col min="7" max="7" width="31.3984375" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2435,8 +2446,17 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.3</v>
       </c>
@@ -2458,8 +2478,17 @@
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.35</v>
       </c>
@@ -2481,8 +2510,17 @@
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -2504,8 +2542,17 @@
       <c r="G4" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
+      <c r="H4" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.45</v>
       </c>
@@ -2527,8 +2574,17 @@
       <c r="G5" s="1">
         <v>8.2000000000000001E-5</v>
       </c>
+      <c r="H5" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -2550,8 +2606,17 @@
       <c r="G6" s="1">
         <v>2.3599999999999999E-4</v>
       </c>
+      <c r="H6" s="1">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.55000000000000004</v>
       </c>
@@ -2573,8 +2638,17 @@
       <c r="G7" s="1">
         <v>5.7300000000000005E-4</v>
       </c>
+      <c r="H7" s="1">
+        <v>2.5399999999999999E-4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -2596,8 +2670,17 @@
       <c r="G8" s="1">
         <v>1.1999999999999999E-3</v>
       </c>
+      <c r="H8" s="1">
+        <v>5.8900000000000001E-4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.65</v>
       </c>
@@ -2619,8 +2702,17 @@
       <c r="G9" s="1">
         <v>2.3E-3</v>
       </c>
+      <c r="H9" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.7</v>
       </c>
@@ -2642,8 +2734,17 @@
       <c r="G10" s="1">
         <v>3.98E-3</v>
       </c>
+      <c r="H10" s="1">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8.1000000000000004E-5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.75</v>
       </c>
@@ -2665,8 +2766,17 @@
       <c r="G11" s="1">
         <v>6.5500000000000003E-3</v>
       </c>
+      <c r="H11" s="1">
+        <v>3.8E-3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.46E-4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.8</v>
       </c>
@@ -2687,6 +2797,15 @@
       </c>
       <c r="G12" s="1">
         <v>1.01E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6.17</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.47E-3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
   </sheetData>

--- a/data/photodetector_data.xlsx
+++ b/data/photodetector_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yx200\Desktop\imperial\yr3\A2-Radiation_Laws\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7797A6DC-DA8E-4B58-8DE6-AD9293557E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB82934E-9C73-4D3B-97C9-06771287277C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>lamp current (A)</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Filter_4 unc</t>
+  </si>
+  <si>
+    <t>Detector_current_5(purple part 2) mA</t>
   </si>
 </sst>
 </file>
@@ -2407,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2420,11 +2423,13 @@
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="5" max="5" width="31.796875" customWidth="1"/>
     <col min="7" max="7" width="31.3984375" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="8" max="8" width="31.46484375" customWidth="1"/>
+    <col min="9" max="9" width="28.265625" customWidth="1"/>
+    <col min="10" max="10" width="15.06640625" customWidth="1"/>
+    <col min="11" max="11" width="31.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2455,8 +2460,11 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.3</v>
       </c>
@@ -2487,8 +2495,11 @@
       <c r="J2" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.35</v>
       </c>
@@ -2519,8 +2530,11 @@
       <c r="J3" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -2551,8 +2565,11 @@
       <c r="J4" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.45</v>
       </c>
@@ -2583,8 +2600,11 @@
       <c r="J5" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -2615,8 +2635,11 @@
       <c r="J6" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="K6" s="1">
+        <v>3.9999999999999998E-6</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.55000000000000004</v>
       </c>
@@ -2647,8 +2670,11 @@
       <c r="J7" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="K7" s="1">
+        <v>6.0000000000000002E-6</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -2679,8 +2705,11 @@
       <c r="J8" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="K8" s="1">
+        <v>1.2999999999999999E-5</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.65</v>
       </c>
@@ -2711,8 +2740,11 @@
       <c r="J9" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="K9" s="1">
+        <v>2.5999999999999998E-5</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.7</v>
       </c>
@@ -2743,8 +2775,11 @@
       <c r="J10" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="K10" s="1">
+        <v>5.3000000000000001E-5</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.75</v>
       </c>
@@ -2775,8 +2810,11 @@
       <c r="J11" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="K11" s="1">
+        <v>1.02E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.8</v>
       </c>
@@ -2806,6 +2844,9 @@
       </c>
       <c r="J12" s="1">
         <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.85E-4</v>
       </c>
     </row>
   </sheetData>
